--- a/public/data/soil/soil_table_mauritania.xlsx
+++ b/public/data/soil/soil_table_mauritania.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>33204.5</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>17.526</v>
+        <v>48.162</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3345.9</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.513</v>
+        <v>3.914</v>
       </c>
     </row>
     <row r="7">
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>23574.4</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>9.253</v>
+        <v>21.883</v>
       </c>
     </row>
     <row r="8">
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>242588.1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>66.36</v>
+        <v>73.152</v>
       </c>
     </row>
     <row r="9">
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>150952.2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>43.034</v>
+        <v>61.774</v>
       </c>
     </row>
     <row r="10">
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>56857.1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.026</v>
+        <v>47.071</v>
       </c>
     </row>
     <row r="11">
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>9095.5</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4.077</v>
+        <v>15.072</v>
       </c>
     </row>
     <row r="12">
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>41899.3</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>21.708</v>
+        <v>36.633</v>
       </c>
     </row>
     <row r="13">
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>13250</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>6.645</v>
+        <v>14.981</v>
       </c>
     </row>
     <row r="14">
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>218.4</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.028</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="15">
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>79443.8</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>39.034</v>
+        <v>53.909</v>
       </c>
     </row>
     <row r="17">
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>92081.8</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>59.879</v>
+        <v>76.699</v>
       </c>
     </row>
     <row r="18">
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>60332.4</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>33.553</v>
+        <v>38.057</v>
       </c>
     </row>
     <row r="19">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>19434.7</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>17.493</v>
+        <v>31.731</v>
       </c>
     </row>
     <row r="20">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>203.2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>72428</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.159</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>50.025</v>
+        <v>52.998</v>
       </c>
     </row>
     <row r="21">
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>163555.2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>128.488</v>
+        <v>141.145</v>
       </c>
     </row>
     <row r="22">
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>221491.3</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>81.31</v>
+        <v>90.047</v>
       </c>
     </row>
     <row r="23">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>212509.1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>56.39</v>
+        <v>85.919</v>
       </c>
     </row>
     <row r="24">
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>109601.3</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>45.209</v>
+        <v>60.94</v>
       </c>
     </row>
     <row r="25">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>179826.2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>46.24</v>
+        <v>57.505</v>
       </c>
     </row>
     <row r="26">
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>12526.9</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.481</v>
+        <v>3.387</v>
       </c>
     </row>
     <row r="27">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>208184.5</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>54.812</v>
+        <v>67.085</v>
       </c>
     </row>
     <row r="28">
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>129110.9</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>20.141</v>
+        <v>30.786</v>
       </c>
     </row>
     <row r="29">
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>296.5</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>210213.1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1745,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.086</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>75.935</v>
+        <v>80.092</v>
       </c>
     </row>
     <row r="30">
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>122351.2</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>19.147</v>
+        <v>35.042</v>
       </c>
     </row>
     <row r="31">
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>282.7</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>243600.4</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.219</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>74.877</v>
+        <v>78.207</v>
       </c>
     </row>
     <row r="32">
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>71.2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.001</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="33">
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>101.1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.001</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="34">
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>12584</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>2.173</v>
+        <v>13.737</v>
       </c>
     </row>
     <row r="35">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>363.7</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.004</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="36">
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>4190.8</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.694</v>
+        <v>11.309</v>
       </c>
     </row>
     <row r="37">
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>49282.6</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>5.892</v>
+        <v>16.081</v>
       </c>
     </row>
     <row r="41">
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>63735.7</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>17.685</v>
+        <v>26.161</v>
       </c>
     </row>
     <row r="42">
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>147724.6</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>15.387</v>
+        <v>22.55</v>
       </c>
     </row>
     <row r="43">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24397.8</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.329</v>
+        <v>1.853</v>
       </c>
     </row>
     <row r="44">
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>122672.8</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>43.713</v>
+        <v>54.699</v>
       </c>
     </row>
     <row r="45">
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>43043</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>15.757</v>
+        <v>21.395</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_mauritania.xlsx
+++ b/public/data/soil/soil_table_mauritania.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>6552.7</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>533.9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4463.1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>8759.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>10577.8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>13309.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>734.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2405.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>868.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>82.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>13536.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>9921.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>29108.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3182.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>7529.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>42589.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>30349.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>4834.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>17680.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>11337</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>39.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>21023.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>6270.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5645.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>4786</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>4678.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2615.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>157.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>316.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2973.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3260.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1771.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>222.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3343.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1166.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
